--- a/docs/Sprint 3/BDDAD/USBD29/insertsSuporte.xlsx
+++ b/docs/Sprint 3/BDDAD/USBD29/insertsSuporte.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Documents/2Year/LAPR3/sem3pi2023_24_g104/docs/Sprint 3/BDDAD/modeloER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1220636_isep_ipp_pt/Documents/sem3pi2023_24_g104/docs/Sprint 3/BDDAD/USBD29/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01CB13B-76A2-FA40-8B10-045D3C7C9AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="8_{D01CB13B-76A2-FA40-8B10-045D3C7C9AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C01179-126E-45AB-BF9B-D1C5C5BA0CF8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B1B92F24-890A-2E43-ADB2-7737A146C8F2}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{B1B92F24-890A-2E43-ADB2-7737A146C8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="operacoesRega" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="237">
   <si>
     <t>tipoOperacao</t>
   </si>
@@ -571,13 +573,214 @@
   </si>
   <si>
     <t>65);</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>duracao</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
+    <t>setor</t>
+  </si>
+  <si>
+    <t>20/09/2023</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>06/09/2023</t>
+  </si>
+  <si>
+    <t>28/08/2023</t>
+  </si>
+  <si>
+    <t>21/08/2023</t>
+  </si>
+  <si>
+    <t>14/08/2023</t>
+  </si>
+  <si>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>30/07/2023</t>
+  </si>
+  <si>
+    <t>23/07/2023</t>
+  </si>
+  <si>
+    <t>16/07/2023</t>
+  </si>
+  <si>
+    <t>09/06/2023</t>
+  </si>
+  <si>
+    <t>02/06/2023</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>31/08/2023</t>
+  </si>
+  <si>
+    <t>26/08/2023</t>
+  </si>
+  <si>
+    <t>19/08/2023</t>
+  </si>
+  <si>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>22/07/2023</t>
+  </si>
+  <si>
+    <t>08/07/2023</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>24/08/2023</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>12/06/2023</t>
+  </si>
+  <si>
+    <t>18/09/2023</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>17-06-2023</t>
+  </si>
+  <si>
+    <t>17/07/2023</t>
+  </si>
+  <si>
+    <t>05:00:00'</t>
+  </si>
+  <si>
+    <t>06:00:00'</t>
+  </si>
+  <si>
+    <t>23:00:00'</t>
+  </si>
+  <si>
+    <t>05:00'</t>
+  </si>
+  <si>
+    <t>04:00:00'</t>
+  </si>
+  <si>
+    <t>21:30:00'</t>
+  </si>
+  <si>
+    <t>07:30:00'</t>
+  </si>
+  <si>
+    <t>06:20:00'</t>
+  </si>
+  <si>
+    <t>07:00:00'</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>16/06/2023</t>
+  </si>
+  <si>
+    <t>15/07/2023</t>
+  </si>
+  <si>
+    <t>10/08/2023</t>
+  </si>
+  <si>
+    <t>09/09/2023</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>20/05/2023</t>
+  </si>
+  <si>
+    <t>09/07/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:30'</t>
+  </si>
+  <si>
+    <t>mixFertirrega</t>
+  </si>
+  <si>
+    <t>Floracal Flow SL</t>
+  </si>
+  <si>
+    <t>soluSOP 52</t>
+  </si>
+  <si>
+    <t>Kiplant AllGrip</t>
+  </si>
+  <si>
+    <t>Cuperdem</t>
+  </si>
+  <si>
+    <t>Tecniferti MOL</t>
+  </si>
+  <si>
+    <t>Tecniferti</t>
+  </si>
+  <si>
+    <t>K+S</t>
+  </si>
+  <si>
+    <t>Plymag</t>
+  </si>
+  <si>
+    <t>Asfertglobal</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +804,11 @@
       <sz val="9.8000000000000007"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -629,13 +837,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +877,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -952,31 +1175,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8006E9D7-E98E-FF40-8373-EE7C411ACDC0}">
   <dimension ref="A1:T316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C263" zoomScale="92" workbookViewId="0">
-      <selection activeCell="T258" sqref="T258:T316"/>
+    <sheetView topLeftCell="A128" zoomScale="92" workbookViewId="0">
+      <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" customWidth="1"/>
+    <col min="6" max="6" width="68.5" customWidth="1"/>
+    <col min="7" max="7" width="99.09765625" customWidth="1"/>
     <col min="8" max="8" width="59" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.296875" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.796875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="54.59765625" customWidth="1"/>
+    <col min="18" max="18" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="R1">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1252,7 @@
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-09-15',' YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1039,17 +1267,17 @@
         <v>INSERT INTO Colheita(id,cultura,quantidade) values (211,(select id from cultura where planta = 'Danvers Half Long' and dataFinal IS NULL),8000);</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="2"/>
       <c r="P4" t="str">
         <f>"INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'Danvers Half Long'),211);"</f>
         <v>INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'Danvers Half Long'),211);</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1325,7 @@
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-09-25',' YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1112,17 +1340,17 @@
         <v>INSERT INTO Colheita(id,cultura,quantidade) values (212,(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),5000);</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" s="2"/>
       <c r="P8" t="str">
         <f>"INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'manteiga'),212);"</f>
         <v>INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'manteiga'),212);</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1170,7 +1398,7 @@
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-05-08', 'YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1185,10 +1413,10 @@
         <v>INSERT INTO Monda (id,cultura,area) values (213,(select id from cultura where planta = 'Sugarsnax Hybrid' and dataFinal IS NULL),0.5);</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1464,7 @@
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-06-14','YYYY-MM-DD'));</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1251,14 +1479,14 @@
         <v>INSERT INTO Colheita(id,cultura,quantidade) values (214,(select id from cultura where planta = 'Sugarsnax Hybrid' and dataFinal IS NULL),1500);</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15" s="2"/>
       <c r="P15" t="str">
         <f>"INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'Sugarsnax Hybrid'),214);"</f>
         <v>INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'Sugarsnax Hybrid'),214);</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:16">
@@ -1390,7 +1618,7 @@
       </c>
       <c r="P22" t="str">
         <f>"INSERT INTO Monda (id,cultura,area) values ("&amp;O21&amp;",(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),"&amp;L21&amp;");"</f>
-        <v>INSERT INTO Monda (id,cultura,area) values (216,(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),0.6);</v>
+        <v>INSERT INTO Monda (id,cultura,area) values (216,(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),0,6);</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1456,7 +1684,7 @@
       </c>
       <c r="P25" t="str">
         <f>"INSERT INTO Monda (id,cultura,area) values ("&amp;O24&amp;",(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),"&amp;L24&amp;");"</f>
-        <v>INSERT INTO Monda (id,cultura,area) values (217,(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),0.6);</v>
+        <v>INSERT INTO Monda (id,cultura,area) values (217,(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),0,6);</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1522,7 +1750,7 @@
       </c>
       <c r="P28" t="str">
         <f>"INSERT INTO Semeadura (id,cultura,area,quantidade) values ("&amp;O27&amp;",(select id from cultura where planta = 'Sugarsnax Hybrid' and dataFinal IS NULL),0.5,"&amp;L27&amp;");"</f>
-        <v>INSERT INTO Semeadura (id,cultura,area,quantidade) values (218,(select id from cultura where planta = 'Sugarsnax Hybrid' and dataFinal IS NULL),0.5,1.2);</v>
+        <v>INSERT INTO Semeadura (id,cultura,area,quantidade) values (218,(select id from cultura where planta = 'Sugarsnax Hybrid' and dataFinal IS NULL),0.5,1,2);</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1588,7 +1816,7 @@
       </c>
       <c r="P31" t="str">
         <f>"INSERT INTO Semeadura (id,cultura,area,quantidade) values ("&amp;O30&amp;",(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),0.6,"&amp;L30&amp;");"</f>
-        <v>INSERT INTO Semeadura (id,cultura,area,quantidade) values (219,(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),0.6,1.5);</v>
+        <v>INSERT INTO Semeadura (id,cultura,area,quantidade) values (219,(select id from cultura where planta = 'manteiga' and dataFinal IS NULL),0.6,1,5);</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1642,7 +1870,7 @@
     <row r="35" spans="1:16">
       <c r="P35" t="str">
         <f>"INSERT INTO MobilizacaoSolo (id,area,parcela) values ("&amp;O34&amp;","&amp;K34&amp;","&amp;L34&amp;");"</f>
-        <v>INSERT INTO MobilizacaoSolo (id,area,parcela) values (220,0.5,'Campo novo');</v>
+        <v>INSERT INTO MobilizacaoSolo (id,area,parcela) values (220,0,5,'Campo novo');</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3425,6 +3653,10 @@
         <f>"INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'Porta de Loja' ),"&amp;O133&amp;");"</f>
         <v>INSERT INTO Produto_Colheita (produtoid,operacaocolheitaid) values ((select p.id from plantaproduto pp inner join produto  p on p.id=pp.produto where pp.planta like 'Porta de Loja' ),245);</v>
       </c>
+      <c r="R135" t="str">
+        <f>"INSERT INTO operacaoRegaSetor (" &amp; $A$1 &amp; ", " &amp; $C$1 &amp; ", " &amp; $D$1 &amp; ", " &amp; $E$1 &amp; ") VALUES (" &amp; A2 &amp; ", " &amp; C2 &amp; ", TO_TIMESTAMP('" &amp; B2 &amp; " " &amp; D2 &amp; "', 'DD/MM/YYYY HH24:MI'), " &amp; E2 &amp; ")"</f>
+        <v>INSERT INTO operacaoRegaSetor (, , , ) VALUES (insert into operacao,  data, TO_TIMESTAMP('tipoOperacao  quantidade', 'DD/MM/YYYY HH24:MI'),  parcela)</v>
+      </c>
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="3" t="s">
@@ -3482,7 +3714,7 @@
         <v>246</v>
       </c>
       <c r="T137" t="str">
-        <f t="shared" ref="T137:T161" si="5">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J137&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T137" si="5">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J137&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-13', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -3503,7 +3735,7 @@
         <v>114</v>
       </c>
       <c r="T138" t="str">
-        <f t="shared" ref="T138:T161" si="6">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S137&amp;","&amp;O137&amp;","&amp;M137&amp;","&amp;L137&amp;");"</f>
+        <f t="shared" ref="T138" si="6">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S137&amp;","&amp;O137&amp;","&amp;M137&amp;","&amp;L137&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (246,'BIOFERTIL N6','Campo grande',120);</v>
       </c>
     </row>
@@ -3523,6 +3755,10 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" s="2"/>
+      <c r="R141" t="str">
+        <f>J142</f>
+        <v>'2021-01-12'</v>
+      </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" s="3" t="s">
@@ -3580,7 +3816,7 @@
         <v>247</v>
       </c>
       <c r="T142" t="str">
-        <f t="shared" ref="T142:T161" si="9">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J142&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T142" si="9">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J142&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-12', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -3595,7 +3831,7 @@
         <v>116</v>
       </c>
       <c r="T143" t="str">
-        <f t="shared" ref="T143:T161" si="10">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S142&amp;","&amp;O142&amp;","&amp;M142&amp;","&amp;L142&amp;");"</f>
+        <f t="shared" ref="T143" si="10">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S142&amp;","&amp;O142&amp;","&amp;M142&amp;","&amp;L142&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (247,'BIOFERTIL N6','Campo grande',180);</v>
       </c>
     </row>
@@ -3672,7 +3908,7 @@
         <v>248</v>
       </c>
       <c r="T147" t="str">
-        <f t="shared" ref="T147:T161" si="12">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J147&amp;", 'YYYY-MM-DD'));"</f>
+        <f>"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J147&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-12', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -3693,14 +3929,14 @@
         <v>118</v>
       </c>
       <c r="T148" t="str">
-        <f t="shared" ref="T148:T161" si="13">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S147&amp;","&amp;O147&amp;","&amp;M147&amp;","&amp;L147&amp;");"</f>
+        <f t="shared" ref="T148" si="12">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S147&amp;","&amp;O147&amp;","&amp;M147&amp;","&amp;L147&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (248,'BIOFERTIL N6','Campo grande',240);</v>
       </c>
     </row>
     <row r="149" spans="1:20">
       <c r="A149" s="2"/>
       <c r="T149" t="str">
-        <f t="shared" ref="T149" si="14">"insert into operacaoAplicacao(id) values ("&amp;S147&amp;");"</f>
+        <f t="shared" ref="T149" si="13">"insert into operacaoAplicacao(id) values ("&amp;S147&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (248);</v>
       </c>
     </row>
@@ -3770,7 +4006,7 @@
         <v>249</v>
       </c>
       <c r="T152" t="str">
-        <f t="shared" ref="T152:T179" si="15">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J152&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T152:T172" si="14">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J152&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-12', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -3791,21 +4027,21 @@
         <v>119</v>
       </c>
       <c r="T153" t="str">
-        <f t="shared" ref="T153:T180" si="16">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S152&amp;","&amp;O152&amp;","&amp;M152&amp;","&amp;L152&amp;");"</f>
+        <f t="shared" ref="T153:T173" si="15">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S152&amp;","&amp;O152&amp;","&amp;M152&amp;","&amp;L152&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (249,'BIOFERTIL N6','Campo grande',120);</v>
       </c>
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="2"/>
       <c r="T154" t="str">
-        <f t="shared" ref="T154" si="17">"insert into operacaoAplicacao(id) values ("&amp;S152&amp;");"</f>
+        <f t="shared" ref="T154" si="16">"insert into operacaoAplicacao(id) values ("&amp;S152&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (249);</v>
       </c>
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="2"/>
       <c r="T155" t="str">
-        <f t="shared" ref="T155" si="18">"insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values ("&amp;S152&amp;",(select id from cultura where lower(planta) = lower('PICUAL') and dataFinal IS NULL));"</f>
+        <f t="shared" ref="T155" si="17">"insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values ("&amp;S152&amp;",(select id from cultura where lower(planta) = lower('PICUAL') and dataFinal IS NULL));"</f>
         <v>insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values (249,(select id from cultura where lower(planta) = lower('PICUAL') and dataFinal IS NULL));</v>
       </c>
     </row>
@@ -3868,7 +4104,7 @@
         <v>250</v>
       </c>
       <c r="T157" t="str">
-        <f t="shared" ref="T157" si="19">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J157&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T157" si="18">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J157&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-12', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -3883,13 +4119,13 @@
         <v>120</v>
       </c>
       <c r="T158" t="str">
-        <f t="shared" ref="T158:T161" si="20">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S157&amp;","&amp;O157&amp;","&amp;M157&amp;","&amp;L157&amp;");"</f>
+        <f t="shared" ref="T158" si="19">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S157&amp;","&amp;O157&amp;","&amp;M157&amp;","&amp;L157&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (250,'BIOFERTIL N6','Campo grande',180);</v>
       </c>
     </row>
     <row r="159" spans="1:20">
       <c r="T159" t="str">
-        <f t="shared" ref="T159" si="21">"insert into operacaoAplicacao(id) values ("&amp;S157&amp;");"</f>
+        <f t="shared" ref="T159" si="20">"insert into operacaoAplicacao(id) values ("&amp;S157&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (250);</v>
       </c>
     </row>
@@ -3955,7 +4191,7 @@
         <v>251</v>
       </c>
       <c r="T162" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-13', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -3976,14 +4212,14 @@
         <v>121</v>
       </c>
       <c r="T163" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (251,'BIOFERTIL N6','Campo grande',240);</v>
       </c>
     </row>
     <row r="164" spans="1:20">
       <c r="A164" s="2"/>
       <c r="T164" t="str">
-        <f t="shared" ref="T164:T174" si="22">"insert into operacaoAplicacao(id) values ("&amp;S162&amp;");"</f>
+        <f t="shared" ref="T164:T174" si="21">"insert into operacaoAplicacao(id) values ("&amp;S162&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (251);</v>
       </c>
     </row>
@@ -4053,7 +4289,7 @@
         <v>252</v>
       </c>
       <c r="T167" t="str">
-        <f t="shared" ref="T167:T182" si="23">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J167&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T167:T182" si="22">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J167&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-12', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -4074,14 +4310,14 @@
         <v>122</v>
       </c>
       <c r="T168" t="str">
-        <f t="shared" ref="T168:T180" si="24">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S167&amp;","&amp;O167&amp;","&amp;M167&amp;","&amp;L167&amp;");"</f>
+        <f t="shared" ref="T168:T178" si="23">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S167&amp;","&amp;O167&amp;","&amp;M167&amp;","&amp;L167&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (252,'BIOFERTIL N6','Campo grande',120);</v>
       </c>
     </row>
     <row r="169" spans="1:20">
       <c r="A169" s="2"/>
       <c r="T169" t="str">
-        <f t="shared" ref="T169:T179" si="25">"insert into operacaoAplicacao(id) values ("&amp;S167&amp;");"</f>
+        <f t="shared" ref="T169:T179" si="24">"insert into operacaoAplicacao(id) values ("&amp;S167&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (252);</v>
       </c>
     </row>
@@ -4151,7 +4387,7 @@
         <v>253</v>
       </c>
       <c r="T172" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-12', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -4166,14 +4402,14 @@
         <v>123</v>
       </c>
       <c r="T173" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (253,'BIOFERTIL N6','Campo grande',180);</v>
       </c>
     </row>
     <row r="174" spans="1:20">
       <c r="A174" s="2"/>
       <c r="T174" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>insert into operacaoAplicacao(id) values (253);</v>
       </c>
     </row>
@@ -4243,7 +4479,7 @@
         <v>254</v>
       </c>
       <c r="T177" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-12', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -4264,13 +4500,13 @@
         <v>124</v>
       </c>
       <c r="T178" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (254,'BIOFERTIL N6','Campo grande',240);</v>
       </c>
     </row>
     <row r="179" spans="1:20">
       <c r="T179" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>insert into operacaoAplicacao(id) values (254);</v>
       </c>
     </row>
@@ -4336,21 +4572,21 @@
         <v>255</v>
       </c>
       <c r="T182" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-04-01', 'YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="183" spans="1:20">
       <c r="A183" s="2"/>
       <c r="T183" t="str">
-        <f t="shared" ref="T183:T184" si="26">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S182&amp;","&amp;O182&amp;","&amp;M182&amp;","&amp;L182&amp;");"</f>
+        <f t="shared" ref="T183" si="25">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S182&amp;","&amp;O182&amp;","&amp;M182&amp;","&amp;L182&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (255,'Biocal Composto','Campo novo',500);</v>
       </c>
     </row>
     <row r="184" spans="1:20">
       <c r="A184" s="2"/>
       <c r="T184" t="str">
-        <f t="shared" ref="T184" si="27">"insert into operacaoAplicacao(id) values ("&amp;S182&amp;");"</f>
+        <f t="shared" ref="T184" si="26">"insert into operacaoAplicacao(id) values ("&amp;S182&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (255);</v>
       </c>
     </row>
@@ -4416,21 +4652,21 @@
         <v>256</v>
       </c>
       <c r="T187" t="str">
-        <f t="shared" ref="T187:T192" si="28">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J187&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T187:T192" si="27">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J187&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-07-03', 'YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="188" spans="1:20">
       <c r="A188" s="2"/>
       <c r="T188" t="str">
-        <f t="shared" ref="T188:T197" si="29">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S187&amp;","&amp;O187&amp;","&amp;M187&amp;","&amp;L187&amp;");"</f>
+        <f t="shared" ref="T188:T193" si="28">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S187&amp;","&amp;O187&amp;","&amp;M187&amp;","&amp;L187&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (256,'Fertimax Extrume de Cavalo','Campo novo',1800);</v>
       </c>
     </row>
     <row r="189" spans="1:20">
       <c r="A189" s="2"/>
       <c r="T189" t="str">
-        <f t="shared" ref="T189:T194" si="30">"insert into operacaoAplicacao(id) values ("&amp;S187&amp;");"</f>
+        <f t="shared" ref="T189:T194" si="29">"insert into operacaoAplicacao(id) values ("&amp;S187&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (256);</v>
       </c>
     </row>
@@ -4496,19 +4732,19 @@
         <v>257</v>
       </c>
       <c r="T192" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2019-01-04', 'YYYY-MM-DD'));</v>
       </c>
     </row>
     <row r="193" spans="1:20">
       <c r="T193" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (257,'BIOFERTIL N6','Lameiro do moinho',3200);</v>
       </c>
     </row>
     <row r="194" spans="1:20">
       <c r="T194" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>insert into operacaoAplicacao(id) values (257);</v>
       </c>
     </row>
@@ -4602,7 +4838,7 @@
     <row r="200" spans="1:20">
       <c r="A200" s="2"/>
       <c r="T200" t="str">
-        <f t="shared" ref="T200" si="31">"insert into operacaoAplicacao(id) values ("&amp;S198&amp;");"</f>
+        <f t="shared" ref="T200" si="30">"insert into operacaoAplicacao(id) values ("&amp;S198&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (258);</v>
       </c>
     </row>
@@ -4672,7 +4908,7 @@
         <v>259</v>
       </c>
       <c r="T203" t="str">
-        <f t="shared" ref="T203:T234" si="32">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J203&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T203" si="31">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J203&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2020-01-06', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -4693,14 +4929,14 @@
         <v>135</v>
       </c>
       <c r="T204" t="str">
-        <f t="shared" ref="T204:T235" si="33">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S203&amp;","&amp;O203&amp;","&amp;M203&amp;","&amp;L203&amp;");"</f>
+        <f t="shared" ref="T204" si="32">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S203&amp;","&amp;O203&amp;","&amp;M203&amp;","&amp;L203&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (259,'Fertimax Extrume de Cavalo','Lameiro do moinho',40);</v>
       </c>
     </row>
     <row r="205" spans="1:20">
       <c r="A205" s="2"/>
       <c r="T205" t="str">
-        <f t="shared" ref="T205:T255" si="34">"insert into operacaoAplicacao(id) values ("&amp;S203&amp;");"</f>
+        <f t="shared" ref="T205:T255" si="33">"insert into operacaoAplicacao(id) values ("&amp;S203&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (259);</v>
       </c>
     </row>
@@ -4770,7 +5006,7 @@
         <v>260</v>
       </c>
       <c r="T208" t="str">
-        <f t="shared" ref="T208:T239" si="35">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J208&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T208" si="34">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J208&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2020-01-06', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -4791,14 +5027,14 @@
         <v>137</v>
       </c>
       <c r="T209" t="str">
-        <f t="shared" ref="T209:T240" si="36">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S208&amp;","&amp;O208&amp;","&amp;M208&amp;","&amp;L208&amp;");"</f>
+        <f t="shared" ref="T209" si="35">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S208&amp;","&amp;O208&amp;","&amp;M208&amp;","&amp;L208&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (260,'Fertimax Extrume de Cavalo','Lameiro do moinho',80);</v>
       </c>
     </row>
     <row r="210" spans="1:20">
       <c r="A210" s="2"/>
       <c r="T210" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (260);</v>
       </c>
     </row>
@@ -4868,7 +5104,7 @@
         <v>261</v>
       </c>
       <c r="T213" t="str">
-        <f t="shared" ref="T213:T259" si="37">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J213&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T213" si="36">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J213&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2020-01-06', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -4889,14 +5125,14 @@
         <v>139</v>
       </c>
       <c r="T214" t="str">
-        <f t="shared" ref="T214:T259" si="38">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S213&amp;","&amp;O213&amp;","&amp;M213&amp;","&amp;L213&amp;");"</f>
+        <f t="shared" ref="T214" si="37">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S213&amp;","&amp;O213&amp;","&amp;M213&amp;","&amp;L213&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (261,'Fertimax Extrume de Cavalo','Lameiro do moinho',60);</v>
       </c>
     </row>
     <row r="215" spans="1:20">
       <c r="A215" s="2"/>
       <c r="T215" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (261);</v>
       </c>
     </row>
@@ -4966,7 +5202,7 @@
         <v>262</v>
       </c>
       <c r="T218" t="str">
-        <f t="shared" ref="T218:T259" si="39">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J218&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T218" si="38">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J218&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2020-01-07', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -4987,14 +5223,14 @@
         <v>142</v>
       </c>
       <c r="T219" t="str">
-        <f t="shared" ref="T219:T259" si="40">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S218&amp;","&amp;O218&amp;","&amp;M218&amp;","&amp;L218&amp;");"</f>
+        <f t="shared" ref="T219" si="39">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S218&amp;","&amp;O218&amp;","&amp;M218&amp;","&amp;L218&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (262,'Fertimax Extrume de Cavalo','Lameiro do moinho',80);</v>
       </c>
     </row>
     <row r="220" spans="1:20">
       <c r="A220" s="2"/>
       <c r="T220" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (262);</v>
       </c>
     </row>
@@ -5064,7 +5300,7 @@
         <v>263</v>
       </c>
       <c r="T223" t="str">
-        <f t="shared" ref="T223:T259" si="41">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J223&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T223" si="40">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J223&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2020-01-07', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5085,14 +5321,14 @@
         <v>144</v>
       </c>
       <c r="T224" t="str">
-        <f t="shared" ref="T224:T259" si="42">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S223&amp;","&amp;O223&amp;","&amp;M223&amp;","&amp;L223&amp;");"</f>
+        <f t="shared" ref="T224" si="41">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S223&amp;","&amp;O223&amp;","&amp;M223&amp;","&amp;L223&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (263,'Fertimax Extrume de Cavalo','Lameiro do moinho',100);</v>
       </c>
     </row>
     <row r="225" spans="1:20">
       <c r="A225" s="2"/>
       <c r="T225" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (263);</v>
       </c>
     </row>
@@ -5168,7 +5404,7 @@
         <v>264</v>
       </c>
       <c r="T228" t="str">
-        <f t="shared" ref="T228:T259" si="43">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J228&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T228" si="42">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J228&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-07', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5189,14 +5425,14 @@
         <v>147</v>
       </c>
       <c r="T229" t="str">
-        <f t="shared" ref="T229:T259" si="44">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S228&amp;","&amp;O228&amp;","&amp;M228&amp;","&amp;L228&amp;");"</f>
+        <f t="shared" ref="T229" si="43">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S228&amp;","&amp;O228&amp;","&amp;M228&amp;","&amp;L228&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (264,'Fertimax Extrume de Cavalo','Lameiro do moinho',150);</v>
       </c>
     </row>
     <row r="230" spans="1:20">
       <c r="A230" s="2"/>
       <c r="T230" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (264);</v>
       </c>
     </row>
@@ -5266,7 +5502,7 @@
         <v>265</v>
       </c>
       <c r="T233" t="str">
-        <f t="shared" ref="T233:T259" si="45">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J233&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T233" si="44">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J233&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-07', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5287,14 +5523,14 @@
         <v>148</v>
       </c>
       <c r="T234" t="str">
-        <f t="shared" ref="T234:T259" si="46">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S233&amp;","&amp;O233&amp;","&amp;M233&amp;","&amp;L233&amp;");"</f>
+        <f t="shared" ref="T234" si="45">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S233&amp;","&amp;O233&amp;","&amp;M233&amp;","&amp;L233&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (265,'Fertimax Extrume de Cavalo','Lameiro do moinho',60);</v>
       </c>
     </row>
     <row r="235" spans="1:20">
       <c r="A235" s="2"/>
       <c r="T235" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (265);</v>
       </c>
     </row>
@@ -5364,7 +5600,7 @@
         <v>266</v>
       </c>
       <c r="T238" t="str">
-        <f t="shared" ref="T238:T259" si="47">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J238&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T238" si="46">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J238&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-08', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5385,14 +5621,14 @@
         <v>150</v>
       </c>
       <c r="T239" t="str">
-        <f t="shared" ref="T239:T259" si="48">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S238&amp;","&amp;O238&amp;","&amp;M238&amp;","&amp;L238&amp;");"</f>
+        <f t="shared" ref="T239" si="47">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S238&amp;","&amp;O238&amp;","&amp;M238&amp;","&amp;L238&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (266,'Fertimax Extrume de Cavalo','Lameiro do moinho',120);</v>
       </c>
     </row>
     <row r="240" spans="1:20">
       <c r="A240" s="2"/>
       <c r="T240" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (266);</v>
       </c>
     </row>
@@ -5462,7 +5698,7 @@
         <v>267</v>
       </c>
       <c r="T243" t="str">
-        <f t="shared" ref="T243:T259" si="49">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J243&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T243" si="48">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J243&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-07', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5483,14 +5719,14 @@
         <v>151</v>
       </c>
       <c r="T244" t="str">
-        <f t="shared" ref="T244:T259" si="50">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S243&amp;","&amp;O243&amp;","&amp;M243&amp;","&amp;L243&amp;");"</f>
+        <f t="shared" ref="T244" si="49">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S243&amp;","&amp;O243&amp;","&amp;M243&amp;","&amp;L243&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (267,'Fertimax Extrume de Cavalo','Lameiro do moinho',90);</v>
       </c>
     </row>
     <row r="245" spans="1:20">
       <c r="A245" s="2"/>
       <c r="T245" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (267);</v>
       </c>
     </row>
@@ -5560,7 +5796,7 @@
         <v>268</v>
       </c>
       <c r="T248" t="str">
-        <f t="shared" ref="T248:T259" si="51">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J248&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T248" si="50">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J248&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-07', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5581,14 +5817,14 @@
         <v>152</v>
       </c>
       <c r="T249" t="str">
-        <f t="shared" ref="T249:T259" si="52">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S248&amp;","&amp;O248&amp;","&amp;M248&amp;","&amp;L248&amp;");"</f>
+        <f t="shared" ref="T249" si="51">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S248&amp;","&amp;O248&amp;","&amp;M248&amp;","&amp;L248&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (268,'Fertimax Extrume de Cavalo','Lameiro do moinho',120);</v>
       </c>
     </row>
     <row r="250" spans="1:20">
       <c r="A250" s="2"/>
       <c r="T250" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (268);</v>
       </c>
     </row>
@@ -5658,7 +5894,7 @@
         <v>269</v>
       </c>
       <c r="T253" t="str">
-        <f t="shared" ref="T253:T259" si="53">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J253&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T253:T258" si="52">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J253&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2021-01-08', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5679,13 +5915,13 @@
         <v>153</v>
       </c>
       <c r="T254" t="str">
-        <f t="shared" ref="T254:T259" si="54">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S253&amp;","&amp;O253&amp;","&amp;M253&amp;","&amp;L253&amp;");"</f>
+        <f t="shared" ref="T254:T259" si="53">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S253&amp;","&amp;O253&amp;","&amp;M253&amp;","&amp;L253&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (269,'Fertimax Extrume de Cavalo','Lameiro do moinho',150);</v>
       </c>
     </row>
     <row r="255" spans="1:20">
       <c r="T255" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>insert into operacaoAplicacao(id) values (269);</v>
       </c>
     </row>
@@ -5754,7 +5990,7 @@
         <v>270</v>
       </c>
       <c r="T258" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2022-01-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5775,14 +6011,14 @@
         <v>155</v>
       </c>
       <c r="T259" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (270,'BIOFERTIL N6','Lameiro do moinho',150);</v>
       </c>
     </row>
     <row r="260" spans="1:20">
       <c r="A260" s="2"/>
       <c r="T260" t="str">
-        <f t="shared" ref="T260" si="55">"insert into operacaoAplicacao(id) values ("&amp;S258&amp;");"</f>
+        <f t="shared" ref="T260" si="54">"insert into operacaoAplicacao(id) values ("&amp;S258&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (270);</v>
       </c>
     </row>
@@ -5852,7 +6088,7 @@
         <v>271</v>
       </c>
       <c r="T263" t="str">
-        <f t="shared" ref="T263:T297" si="56">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J263&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T263:T293" si="55">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J263&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2022-01-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5873,14 +6109,14 @@
         <v>156</v>
       </c>
       <c r="T264" t="str">
-        <f t="shared" ref="T264:T297" si="57">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S263&amp;","&amp;O263&amp;","&amp;M263&amp;","&amp;L263&amp;");"</f>
+        <f t="shared" ref="T264:T294" si="56">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S263&amp;","&amp;O263&amp;","&amp;M263&amp;","&amp;L263&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (271,'BIOFERTIL N6','Lameiro do moinho',60);</v>
       </c>
     </row>
     <row r="265" spans="1:20">
       <c r="A265" s="2"/>
       <c r="T265" t="str">
-        <f t="shared" ref="T265:T295" si="58">"insert into operacaoAplicacao(id) values ("&amp;S263&amp;");"</f>
+        <f t="shared" ref="T265:T295" si="57">"insert into operacaoAplicacao(id) values ("&amp;S263&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (271);</v>
       </c>
     </row>
@@ -5950,7 +6186,7 @@
         <v>272</v>
       </c>
       <c r="T268" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2022-01-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -5971,14 +6207,14 @@
         <v>157</v>
       </c>
       <c r="T269" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (272,'BIOFERTIL N6','Lameiro do moinho',120);</v>
       </c>
     </row>
     <row r="270" spans="1:20">
       <c r="A270" s="2"/>
       <c r="T270" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>insert into operacaoAplicacao(id) values (272);</v>
       </c>
     </row>
@@ -6048,7 +6284,7 @@
         <v>273</v>
       </c>
       <c r="T273" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2022-01-16', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6069,14 +6305,14 @@
         <v>159</v>
       </c>
       <c r="T274" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (273,'BIOFERTIL N6','Lameiro do moinho',90);</v>
       </c>
     </row>
     <row r="275" spans="1:20">
       <c r="A275" s="2"/>
       <c r="T275" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>insert into operacaoAplicacao(id) values (273);</v>
       </c>
     </row>
@@ -6146,7 +6382,7 @@
         <v>274</v>
       </c>
       <c r="T278" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2022-01-16', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6167,14 +6403,14 @@
         <v>160</v>
       </c>
       <c r="T279" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (274,'BIOFERTIL N6','Lameiro do moinho',120);</v>
       </c>
     </row>
     <row r="280" spans="1:20">
       <c r="A280" s="2"/>
       <c r="T280" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>insert into operacaoAplicacao(id) values (274);</v>
       </c>
     </row>
@@ -6244,7 +6480,7 @@
         <v>275</v>
       </c>
       <c r="T283" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2022-01-16', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6265,21 +6501,21 @@
         <v>161</v>
       </c>
       <c r="T284" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (275,'BIOFERTIL N6','Lameiro do moinho',150);</v>
       </c>
     </row>
     <row r="285" spans="1:20">
       <c r="A285" s="2"/>
       <c r="T285" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>insert into operacaoAplicacao(id) values (275);</v>
       </c>
     </row>
     <row r="286" spans="1:20">
       <c r="A286" s="2"/>
       <c r="T286" t="str">
-        <f t="shared" ref="T286" si="59">"insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values ("&amp;S283&amp;",(select id from cultura where lower(planta) like lower('gronho doce') and dataFinal IS NULL));"</f>
+        <f t="shared" ref="T286" si="58">"insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values ("&amp;S283&amp;",(select id from cultura where lower(planta) like lower('gronho doce') and dataFinal IS NULL));"</f>
         <v>insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values (275,(select id from cultura where lower(planta) like lower('gronho doce') and dataFinal IS NULL));</v>
       </c>
     </row>
@@ -6342,7 +6578,7 @@
         <v>276</v>
       </c>
       <c r="T288" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-05-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6363,14 +6599,14 @@
         <v>164</v>
       </c>
       <c r="T289" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (276,'EPSO Microtop','Lameiro do moinho',5);</v>
       </c>
     </row>
     <row r="290" spans="1:20">
       <c r="A290" s="2"/>
       <c r="T290" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>insert into operacaoAplicacao(id) values (276);</v>
       </c>
     </row>
@@ -6440,7 +6676,7 @@
         <v>277</v>
       </c>
       <c r="T293" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-05-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6461,14 +6697,14 @@
         <v>165</v>
       </c>
       <c r="T294" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (277,'EPSO Microtop','Lameiro do moinho',2);</v>
       </c>
     </row>
     <row r="295" spans="1:20">
       <c r="A295" s="2"/>
       <c r="T295" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>insert into operacaoAplicacao(id) values (277);</v>
       </c>
     </row>
@@ -6538,7 +6774,7 @@
         <v>278</v>
       </c>
       <c r="T298" t="str">
-        <f t="shared" ref="T298:T304" si="60">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J298&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T298" si="59">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J298&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-05-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6559,14 +6795,14 @@
         <v>166</v>
       </c>
       <c r="T299" t="str">
-        <f t="shared" ref="T299:T304" si="61">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S298&amp;","&amp;O298&amp;","&amp;M298&amp;","&amp;L298&amp;");"</f>
+        <f t="shared" ref="T299" si="60">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S298&amp;","&amp;O298&amp;","&amp;M298&amp;","&amp;L298&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (278,'EPSO Microtop','Lameiro do moinho',4);</v>
       </c>
     </row>
     <row r="300" spans="1:20">
       <c r="A300" s="2"/>
       <c r="T300" t="str">
-        <f t="shared" ref="T300" si="62">"insert into operacaoAplicacao(id) values ("&amp;S298&amp;");"</f>
+        <f t="shared" ref="T300" si="61">"insert into operacaoAplicacao(id) values ("&amp;S298&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (278);</v>
       </c>
     </row>
@@ -6636,7 +6872,7 @@
         <v>279</v>
       </c>
       <c r="T303" t="str">
-        <f t="shared" ref="T303:T317" si="63">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J303&amp;", 'YYYY-MM-DD'));"</f>
+        <f t="shared" ref="T303:T313" si="62">"INSERT INTO Operacao (anulada,data) values (0, TO_DATE("&amp;J303&amp;", 'YYYY-MM-DD'));"</f>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-05-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6657,14 +6893,14 @@
         <v>167</v>
       </c>
       <c r="T304" t="str">
-        <f t="shared" ref="T304:T317" si="64">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S303&amp;","&amp;O303&amp;","&amp;M303&amp;","&amp;L303&amp;");"</f>
+        <f t="shared" ref="T304:T314" si="63">"insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values ("&amp;S303&amp;","&amp;O303&amp;","&amp;M303&amp;","&amp;L303&amp;");"</f>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (279,'EPSO Microtop','Lameiro do moinho',3);</v>
       </c>
     </row>
     <row r="305" spans="1:20">
       <c r="A305" s="2"/>
       <c r="T305" t="str">
-        <f t="shared" ref="T305:T315" si="65">"insert into operacaoAplicacao(id) values ("&amp;S303&amp;");"</f>
+        <f t="shared" ref="T305:T315" si="64">"insert into operacaoAplicacao(id) values ("&amp;S303&amp;");"</f>
         <v>insert into operacaoAplicacao(id) values (279);</v>
       </c>
     </row>
@@ -6734,7 +6970,7 @@
         <v>280</v>
       </c>
       <c r="T308" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-05-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6755,14 +6991,14 @@
         <v>168</v>
       </c>
       <c r="T309" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (280,'EPSO Microtop','Lameiro do moinho',4);</v>
       </c>
     </row>
     <row r="310" spans="1:20">
       <c r="A310" s="2"/>
       <c r="T310" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>insert into operacaoAplicacao(id) values (280);</v>
       </c>
     </row>
@@ -6832,7 +7068,7 @@
         <v>281</v>
       </c>
       <c r="T313" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>INSERT INTO Operacao (anulada,data) values (0, TO_DATE('2023-05-15', 'YYYY-MM-DD'));</v>
       </c>
     </row>
@@ -6853,19 +7089,19 @@
         <v>170</v>
       </c>
       <c r="T314" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>insert into operacaofatorProducao(id,fatorproducao,parcela,quantidade) values (281,'EPSO Microtop','Lameiro do moinho',5);</v>
       </c>
     </row>
     <row r="315" spans="1:20">
       <c r="T315" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>insert into operacaoAplicacao(id) values (281);</v>
       </c>
     </row>
     <row r="316" spans="1:20">
       <c r="T316" t="str">
-        <f t="shared" ref="T316" si="66">"insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values ("&amp;S313&amp;",(select id from cultura where lower(planta) like lower('gronho doce') and dataFinal IS NULL));"</f>
+        <f t="shared" ref="T316" si="65">"insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values ("&amp;S313&amp;",(select id from cultura where lower(planta) like lower('gronho doce') and dataFinal IS NULL));"</f>
         <v>insert into culturaoperacaofatorproducao(operacaofatorproducao,cultura) values (281,(select id from cultura where lower(planta) like lower('gronho doce') and dataFinal IS NULL));</v>
       </c>
     </row>
@@ -6873,4 +7109,1470 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47C7E54-DAD2-4FB5-8574-D00023065B92}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.8984375" customWidth="1"/>
+    <col min="7" max="7" width="38.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO operacao (" &amp; $A$1 &amp; ", " &amp; $B$1 &amp; ") VALUES (" &amp;A2&amp; ", TO_DATE('" &amp; B2 &amp; "', 'YYYY-MM-DD'))"</f>
+        <v>INSERT INTO operacao (id, data) VALUES (1, TO_DATE('17-06-2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO operacaoRegaSetor (" &amp; $A$1 &amp; ", " &amp; $C$1 &amp; ", " &amp; $D$1 &amp; ", " &amp; $E$1 &amp; ") VALUES (" &amp; A2 &amp; ", " &amp; C2 &amp; ", TO_TIMESTAMP('" &amp; B2 &amp; " " &amp; D2 &amp; ", 'DD/MM/YYYY HH24:MI'), " &amp; E2 &amp; ")"</f>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (1, 30, TO_TIMESTAMP('17-06-2023 05:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F39" si="0">"INSERT INTO operacao (" &amp; $A$1 &amp; ", " &amp; $B$1 &amp; ") VALUES (" &amp;A3&amp; ", TO_DATE('" &amp; B3 &amp; "', 'YYYY-MM-DD'))"</f>
+        <v>INSERT INTO operacao (id, data) VALUES (2, TO_DATE('17/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G39" si="1">"INSERT INTO operacaoRegaSetor (" &amp; $A$1 &amp; ", " &amp; $C$1 &amp; ", " &amp; $D$1 &amp; ", " &amp; $E$1 &amp; ") VALUES (" &amp; A3 &amp; ", " &amp; C3 &amp; ", TO_TIMESTAMP('" &amp; B3 &amp; " " &amp; D3 &amp; ", 'DD/MM/YYYY HH24:MI'), " &amp; E3 &amp; ")"</f>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (2, 30, TO_TIMESTAMP('17/07/2023 05:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (3, TO_DATE('17/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (3, 60, TO_TIMESTAMP('17/08/2023 05:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (4, TO_DATE('04/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (4, 120, TO_TIMESTAMP('04/09/2023 06:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (5, TO_DATE('18/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (5, 30, TO_TIMESTAMP('18/09/2023 05:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (6, TO_DATE('02/10/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (6, 60, TO_TIMESTAMP('02/10/2023 06:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (7, TO_DATE('13/05/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (7, 120, TO_TIMESTAMP('13/05/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (8, TO_DATE('02/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (8, 120, TO_TIMESTAMP('02/06/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (9, TO_DATE('01/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (9, 120, TO_TIMESTAMP('01/07/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (10, TO_DATE('08/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (10, 180, TO_TIMESTAMP('08/07/2023 05:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (11, TO_DATE('22/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (11, 180, TO_TIMESTAMP('22/07/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13">
+        <v>180</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (12, TO_DATE('29/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (12, 180, TO_TIMESTAMP('29/07/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (13, TO_DATE('05/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (13, 120, TO_TIMESTAMP('05/08/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (14, TO_DATE('17/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (14, 120, TO_TIMESTAMP('17/08/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (15, TO_DATE('24/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (15, 120, TO_TIMESTAMP('24/08/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (16, TO_DATE('02/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (16, 120, TO_TIMESTAMP('02/09/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (17, TO_DATE('18/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (17, 120, TO_TIMESTAMP('18/09/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (18, TO_DATE('12/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (18, 120, TO_TIMESTAMP('12/06/2023 06:00:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (19, TO_DATE('19/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (19, 120, TO_TIMESTAMP('19/06/2023 06:00:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (20, TO_DATE('08/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (20, 120, TO_TIMESTAMP('08/07/2023 04:00:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (21, TO_DATE('22/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (21, 120, TO_TIMESTAMP('22/07/2023 04:00:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (22, TO_DATE('05/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (22, 120, TO_TIMESTAMP('05/08/2023 21:30:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (23, TO_DATE('19/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (23, 120, TO_TIMESTAMP('19/08/2023 21:30:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25">
+        <v>42</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (24, TO_DATE('26/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (24, 120, TO_TIMESTAMP('26/08/2023 21:30:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26">
+        <v>42</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (25, TO_DATE('31/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (25, 120, TO_TIMESTAMP('31/08/2023 21:30:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27">
+        <v>42</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (26, TO_DATE('05/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (26, 120, TO_TIMESTAMP('05/09/2023 21:30:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28">
+        <v>41</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (27, TO_DATE('02/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (27, 120, TO_TIMESTAMP('02/06/2023 07:30:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29">
+        <v>41</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (28, TO_DATE('09/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (28, 120, TO_TIMESTAMP('09/06/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30">
+        <v>41</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (29, TO_DATE('16/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (29, 120, TO_TIMESTAMP('16/07/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31">
+        <v>41</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (30, TO_DATE('23/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (30, 120, TO_TIMESTAMP('23/07/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32">
+        <v>120</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32">
+        <v>41</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (31, TO_DATE('30/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (31, 120, TO_TIMESTAMP('30/07/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>41</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (32, TO_DATE('07/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (32, 120, TO_TIMESTAMP('07/08/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34">
+        <v>120</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34">
+        <v>41</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (33, TO_DATE('14/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (33, 120, TO_TIMESTAMP('14/08/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35">
+        <v>120</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35">
+        <v>41</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (34, TO_DATE('21/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (34, 120, TO_TIMESTAMP('21/08/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36">
+        <v>120</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (35, TO_DATE('28/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (35, 120, TO_TIMESTAMP('28/08/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37">
+        <v>120</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37">
+        <v>41</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (36, TO_DATE('06/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (36, 120, TO_TIMESTAMP('06/09/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38">
+        <v>120</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38">
+        <v>41</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (37, TO_DATE('13/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (37, 120, TO_TIMESTAMP('13/09/2023 07:00:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39">
+        <v>120</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39">
+        <v>41</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO operacao (id, data) VALUES (38, TO_DATE('20/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (38, 120, TO_TIMESTAMP('20/09/2023 07:00:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="F40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="str">
+        <f>"INSERT INTO operacao (" &amp; $A$1 &amp; ", " &amp; $B$1 &amp; ") VALUES (" &amp;A41&amp; ", TO_DATE('" &amp; B41 &amp; "', 'YYYY-MM-DD'))"</f>
+        <v>INSERT INTO operacao (id, data) VALUES (39, TO_DATE('02/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H41" t="str">
+        <f>"INSERT INTO operacaoRegaSetor (" &amp; $A$1 &amp; ", " &amp; $C$1 &amp; ", " &amp; $D$1 &amp; ", " &amp; $E$1 &amp; ") VALUES (" &amp; A41 &amp; ", " &amp; C41 &amp; ", TO_TIMESTAMP('" &amp; B41 &amp; " " &amp; D41 &amp; ", 'DD/MM/YYYY HH24:MI'), " &amp; E41 &amp; ")"</f>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (39, 60, TO_TIMESTAMP('02/06/2023 06:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+      <c r="I41" t="str">
+        <f>"Insert into RegaFertirrega values("&amp; A41 &amp;", "&amp; F41 &amp;")"</f>
+        <v>Insert into RegaFertirrega values(39, 10)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42">
+        <v>120</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" ref="G42:G53" si="2">"INSERT INTO operacao (" &amp; $A$1 &amp; ", " &amp; $B$1 &amp; ") VALUES (" &amp;A42&amp; ", TO_DATE('" &amp; B42 &amp; "', 'YYYY-MM-DD'))"</f>
+        <v>INSERT INTO operacao (id, data) VALUES (40, TO_DATE('02/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" ref="H42:H53" si="3">"INSERT INTO operacaoRegaSetor (" &amp; $A$1 &amp; ", " &amp; $C$1 &amp; ", " &amp; $D$1 &amp; ", " &amp; $E$1 &amp; ") VALUES (" &amp; A42 &amp; ", " &amp; C42 &amp; ", TO_TIMESTAMP('" &amp; B42 &amp; " " &amp; D42 &amp; ", 'DD/MM/YYYY HH24:MI'), " &amp; E42 &amp; ")"</f>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (40, 120, TO_TIMESTAMP('02/07/2023 06:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" ref="I42:I53" si="4">"Insert into RegaFertirrega values("&amp; A42 &amp;", "&amp; F42 &amp;")"</f>
+        <v>Insert into RegaFertirrega values(40, 10)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43">
+        <v>180</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (41, TO_DATE('02/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (41, 180, TO_TIMESTAMP('02/08/2023 05:00:00', 'DD/MM/YYYY HH24:MI'), 10)</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(41, 10)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44">
+        <v>120</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (42, TO_DATE('16/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (42, 120, TO_TIMESTAMP('16/06/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(42, 10)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45">
+        <v>180</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (43, TO_DATE('15/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (43, 180, TO_TIMESTAMP('15/07/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(43, 11)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46">
+        <v>150</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (44, TO_DATE('10/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (44, 150, TO_TIMESTAMP('10/08/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(44, 10)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47">
+        <v>120</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (45, TO_DATE('09/09/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (45, 120, TO_TIMESTAMP('09/09/2023 23:00:00', 'DD/MM/YYYY HH24:MI'), 22)</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(45, 10)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48">
+        <v>120</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48">
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (46, TO_DATE('30/06/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (46, 120, TO_TIMESTAMP('30/06/2023 04:00:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(46, 11)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (47, TO_DATE('15/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (47, 120, TO_TIMESTAMP('15/07/2023 04:00:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(47, 10)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (48, TO_DATE('29/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (48, 150, TO_TIMESTAMP('29/07/2023 04:00:00', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(48, 11)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51">
+        <v>120</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (49, TO_DATE('12/08/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (49, 120, TO_TIMESTAMP('12/08/2023  21:30', 'DD/MM/YYYY HH24:MI'), 42)</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(49, 10)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52">
+        <v>120</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52">
+        <v>41</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (50, TO_DATE('20/05/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (50, 120, TO_TIMESTAMP('20/05/2023 07:30:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(50, 11)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53">
+        <v>120</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53">
+        <v>41</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO operacao (id, data) VALUES (51, TO_DATE('09/07/2023', 'YYYY-MM-DD'))</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO operacaoRegaSetor (id, duracao, horario, setor) VALUES (51, 120, TO_TIMESTAMP('09/07/2023 06:20:00', 'DD/MM/YYYY HH24:MI'), 41)</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="4"/>
+        <v>Insert into RegaFertirrega values(51, 10)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA90F46-4CC9-4B7C-95AB-FC48C95927DC}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>